--- a/exports/instagram_sofig.oficial.xlsx
+++ b/exports/instagram_sofig.oficial.xlsx
@@ -503,10 +503,10 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>160523</v>
+        <v>160766</v>
       </c>
       <c r="G2" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>

--- a/exports/instagram_sofig.oficial.xlsx
+++ b/exports/instagram_sofig.oficial.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>160766</v>
+        <v>160964</v>
       </c>
       <c r="G2" t="n">
         <v>500</v>
